--- a/biology/Mycologie/Venturia_(champignon)/Venturia_(champignon).xlsx
+++ b/biology/Mycologie/Venturia_(champignon)/Venturia_(champignon).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Venturia est un genre de champignons, de la famille des Venturiaceae[1]. Les 58[2] ou 130[3] espèces du genre sont phytopathogènes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Venturia est un genre de champignons, de la famille des Venturiaceae. Les 58 ou 130 espèces du genre sont phytopathogènes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des espèces du genre Venturia ont été identifiées pour la première fois en 1882[4], et le genre circonscrit par Pier Andrea Saccardo[5]. Leurs formes anamorphes étaient historiquement classés dans le genre Fusicladium (en)[2].
-Le premier génome complet d'une espèce du genre Venturia (V. effusa) a été  séquencé en 2019[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des espèces du genre Venturia ont été identifiées pour la première fois en 1882, et le genre circonscrit par Pier Andrea Saccardo. Leurs formes anamorphes étaient historiquement classés dans le genre Fusicladium (en).
+Le premier génome complet d'une espèce du genre Venturia (V. effusa) a été  séquencé en 2019.
 </t>
         </is>
       </c>
@@ -545,10 +559,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Étymologie
-Le genre a été nommé en l'honneur du mycologue italien Carlo Antonio Venturi (it) (1805-1864)[7].
-Liste d'espèces
-Selon Index Fungorum[3] :
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été nommé en l'honneur du mycologue italien Carlo Antonio Venturi (it) (1805-1864).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Venturia_(champignon)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mycologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Venturia_(champignon)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Index Fungorum :
 Venturia acerina Plakidas ex M.E. Barr (1968)
 Venturia aceris (Höhn.) Sivan. (1977)
 Venturia achilleae Sivan. (1977)
